--- a/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Features_PCA.xlsx
+++ b/Data/Predictions/Random Forest/Random_Forest_Classifier_Predictions_All_Features_PCA.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -12174,7 +12174,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15630,7 +15630,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17952,7 +17952,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21705,7 +21705,7 @@
       </c>
       <c r="E788" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -23568,7 +23568,7 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24135,7 +24135,7 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -24621,7 +24621,7 @@
       </c>
       <c r="E896" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -24918,7 +24918,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="E929" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -26322,7 +26322,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -28131,7 +28131,7 @@
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -28590,7 +28590,7 @@
       </c>
       <c r="E1043" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29103,7 +29103,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29184,7 +29184,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -31776,7 +31776,7 @@
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -33342,7 +33342,7 @@
       </c>
       <c r="E1219" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33531,7 +33531,7 @@
       </c>
       <c r="E1226" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -34773,7 +34773,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35016,7 +35016,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35286,7 +35286,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35907,7 +35907,7 @@
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35934,7 +35934,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -35961,7 +35961,7 @@
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -36312,7 +36312,7 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -39606,7 +39606,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -39849,7 +39849,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -40578,7 +40578,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
